--- a/Work flow.xlsx
+++ b/Work flow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Super Admin</t>
   </si>
@@ -64,6 +64,45 @@
   </si>
   <si>
     <t>Cancle order</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Custumer Name</t>
+  </si>
+  <si>
+    <t>Shop name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>PostCode</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Bill Number</t>
+  </si>
+  <si>
+    <t>CustumerName - Date - Bill Number</t>
+  </si>
+  <si>
+    <t>Rights</t>
+  </si>
+  <si>
+    <t>Landing Page</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Customer Name in Top</t>
+  </si>
+  <si>
+    <t>Icon</t>
   </si>
 </sst>
 </file>
@@ -419,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,12 +575,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Work flow.xlsx
+++ b/Work flow.xlsx
@@ -109,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,8 +124,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +149,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -151,10 +171,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,22 +600,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -601,47 +626,57 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L9" t="s">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I10" t="s">
+      <c r="I10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L10" t="s">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L11" t="s">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I12" t="s">
+      <c r="I12" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Work flow.xlsx
+++ b/Work flow.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Kushal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20112" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
   <si>
     <t>Super Admin</t>
   </si>
@@ -103,13 +109,118 @@
   </si>
   <si>
     <t>Icon</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Stock Description</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>BatchNo</t>
+  </si>
+  <si>
+    <t>AvailableQuantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>OrderNumber</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SellPrice</t>
+  </si>
+  <si>
+    <t>PurchasePrice</t>
+  </si>
+  <si>
+    <t>RequiredQuantity</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Expiry</t>
+  </si>
+  <si>
+    <t>Sellprice</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>ProductStock</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>Sell P</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>mnb</t>
+  </si>
+  <si>
+    <t>zxc</t>
+  </si>
+  <si>
+    <t>Plastic</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Electronic Cir</t>
+  </si>
+  <si>
+    <t>Toy Car</t>
+  </si>
+  <si>
+    <t>Rubber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +249,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +277,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -171,13 +296,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -187,6 +315,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -235,7 +366,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,7 +401,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,107 +616,107 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -600,43 +731,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I9" s="3" t="s">
         <v>17</v>
       </c>
@@ -646,7 +777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I10" s="3" t="s">
         <v>19</v>
       </c>
@@ -656,7 +787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I11" s="3" t="s">
         <v>16</v>
       </c>
@@ -666,7 +797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I12" s="3" t="s">
         <v>22</v>
       </c>
@@ -682,11 +813,465 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>75</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" s="4">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>80</v>
+      </c>
+      <c r="R3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>300</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="R4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>20</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>85</v>
+      </c>
+      <c r="M11">
+        <f>SUM(P2:P3)</f>
+        <v>110</v>
+      </c>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>300</v>
+      </c>
+      <c r="N12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>20</v>
+      </c>
+      <c r="N13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4">
+        <v>75</v>
+      </c>
+      <c r="E16" s="4">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="7">
+        <v>44713</v>
+      </c>
+      <c r="J16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16">
+        <v>110</v>
+      </c>
+      <c r="M16" s="8">
+        <v>110</v>
+      </c>
+      <c r="O16">
+        <v>80</v>
+      </c>
+      <c r="P16">
+        <v>75</v>
+      </c>
+      <c r="Q16">
+        <v>110</v>
+      </c>
+      <c r="R16">
+        <f>Q16-P16</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="4">
+        <v>75</v>
+      </c>
+      <c r="E17" s="4">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="7">
+        <v>44743</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>150</v>
+      </c>
+      <c r="O17">
+        <v>30</v>
+      </c>
+      <c r="P17">
+        <v>80</v>
+      </c>
+      <c r="Q17">
+        <v>110</v>
+      </c>
+      <c r="R17">
+        <f>Q17-P17</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="4">
+        <v>75</v>
+      </c>
+      <c r="E18" s="4">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="R18">
+        <f>SUM(R16:R17)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="4">
+        <v>80</v>
+      </c>
+      <c r="E19" s="4">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="4">
+        <v>80</v>
+      </c>
+      <c r="E20" s="4">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
